--- a/data/UF Subsequent Interventions Data_Master.xlsx
+++ b/data/UF Subsequent Interventions Data_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23600" windowHeight="13400" activeTab="4"/>
+    <workbookView xWindow="2100" yWindow="1640" windowWidth="23600" windowHeight="13400" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Med vs IAC JW'!$C$65:$E$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Med vs Med DVE'!$A$35:$A$36</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="313">
   <si>
     <t>Study ID</t>
   </si>
@@ -911,9 +912,6 @@
     <t>one hysterectomy due to harms not counted here</t>
   </si>
   <si>
-    <t>by 60</t>
-  </si>
-  <si>
     <t>6 to 12</t>
   </si>
   <si>
@@ -930,9 +928,6 @@
     <t>hysteroscopic myomectomy</t>
   </si>
   <si>
-    <t>By 60</t>
-  </si>
-  <si>
     <t>38 randomized, 37 got UAE</t>
   </si>
   <si>
@@ -985,6 +980,9 @@
   </si>
   <si>
     <t>10 to 16</t>
+  </si>
+  <si>
+    <t>25 to 60</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1312,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1471,6 +1469,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1480,13 +1488,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
@@ -1961,18 +1965,18 @@
     </row>
     <row r="2" spans="1:16" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" s="2"/>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
     </row>
     <row r="3" spans="1:16" ht="90" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2390,7 +2394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -2409,46 +2413,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3245,7 +3249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
@@ -3264,46 +3268,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="F1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="65" t="s">
         <v>305</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>307</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="N1" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3599,11 +3603,11 @@
       <c r="N10" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -4626,7 +4630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -4645,46 +4649,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="F1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="65" t="s">
         <v>305</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>307</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="N1" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -6879,11 +6883,11 @@
       <c r="M61" s="11"/>
     </row>
     <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="73" t="s">
+      <c r="A63" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="B63" s="76"/>
-      <c r="C63" s="76"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="79"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C65" s="37" t="s">
@@ -7555,8 +7559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P159"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7578,46 +7582,46 @@
   <sheetData>
     <row r="1" spans="1:16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="F1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="65" t="s">
         <v>305</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>307</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="N1" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="O1" s="2"/>
     </row>
@@ -8119,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="54">
-        <f>(F12-SUM(G12:L12))</f>
+        <f t="shared" ref="M12:M48" si="1">(F12-SUM(G12:L12))</f>
         <v>29</v>
       </c>
       <c r="N12" s="50" t="s">
@@ -8166,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="54">
-        <f>(F13-SUM(G13:L13))</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="N13" s="50"/>
@@ -8211,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="54">
-        <f>(F14-SUM(G14:L14))</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="N14" s="50"/>
@@ -8256,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="54">
-        <f>(F15-SUM(G15:L15))</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="N15" s="50"/>
@@ -8301,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="54">
-        <f>(F16-SUM(G16:L16))</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="N16" s="50"/>
@@ -8346,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="54">
-        <f>(F17-SUM(G17:L17))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N17" s="50"/>
@@ -8391,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="54">
-        <f>(F18-SUM(G18:L18))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="N18" s="50" t="s">
@@ -8438,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="54">
-        <f>(F19-SUM(G19:L19))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N19" s="50"/>
@@ -8483,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="54">
-        <f>(F20-SUM(G20:L20))</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="N20" s="56" t="s">
@@ -8530,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="54">
-        <f>(F21-SUM(G21:L21))</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="N21" s="50"/>
@@ -8575,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="54">
-        <f>(F22-SUM(G22:L22))</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="N22" s="50"/>
@@ -8620,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="54">
-        <f>(F23-SUM(G23:L23))</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="N23" s="50"/>
@@ -8665,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="54">
-        <f>(F24-SUM(G24:L24))</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="N24" s="50"/>
@@ -8710,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="54">
-        <f>(F25-SUM(G25:L25))</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="N25" s="50"/>
@@ -8755,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="54">
-        <f>(F26-SUM(G26:L26))</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="N26" s="50"/>
@@ -8800,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="54">
-        <f>(F27-SUM(G27:L27))</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="N27" s="50"/>
@@ -8845,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="54">
-        <f>(F28-SUM(G28:L28))</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="N28" s="50"/>
@@ -8890,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="54">
-        <f>(F29-SUM(G29:L29))</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="N29" s="50"/>
@@ -8935,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="54">
-        <f>(F30-SUM(G30:L30))</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="N30" s="50" t="s">
@@ -8983,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="54">
-        <f>(F31-SUM(G31:L31))</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="N31" s="50" t="s">
@@ -9030,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="54">
-        <f>(F32-SUM(G32:L32))</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="N32" s="50" t="s">
@@ -9077,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="54">
-        <f>(F33-SUM(G33:L33))</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="N33" s="56" t="s">
@@ -9124,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="54">
-        <f>(F34-SUM(G34:L34))</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="N34" s="56" t="s">
@@ -9171,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="54">
-        <f>(F35-SUM(G35:L35))</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="N35" s="56" t="s">
@@ -9218,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="54">
-        <f>(F36-SUM(G36:L36))</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="N36" s="50"/>
@@ -9263,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="54">
-        <f>(F37-SUM(G37:L37))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N37" s="56" t="s">
@@ -9310,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="54">
-        <f>(F38-SUM(G38:L38))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N38" s="56" t="s">
@@ -9357,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="54">
-        <f>(F39-SUM(G39:L39))</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="N39" s="50"/>
@@ -9402,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="54">
-        <f>(F40-SUM(G40:L40))</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="N40" s="50"/>
@@ -9447,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="54">
-        <f>(F41-SUM(G41:L41))</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="N41" s="56" t="s">
@@ -9494,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="54">
-        <f>(F42-SUM(G42:L42))</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="N42" s="56" t="s">
@@ -9541,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="54">
-        <f>(F43-SUM(G43:L43))</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="N43" s="50" t="s">
@@ -9588,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="54">
-        <f>(F44-SUM(G44:L44))</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="N44" s="50" t="s">
@@ -9635,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="54">
-        <f>(F45-SUM(G45:L45))</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="N45" s="56" t="s">
@@ -9682,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="54">
-        <f>(F46-SUM(G46:L46))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N46" s="50" t="s">
@@ -9729,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="54">
-        <f>(F47-SUM(G47:L47))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N47" s="50" t="s">
@@ -9776,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="54">
-        <f>(F48-SUM(G48:L48))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N48" s="50" t="s">
@@ -9824,11 +9828,11 @@
         <v>0</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" ref="M49:M50" si="1">(F49-SUM(G49:L49))</f>
+        <f t="shared" ref="M49:M50" si="2">(F49-SUM(G49:L49))</f>
         <v>15</v>
       </c>
-      <c r="N49" s="77" t="s">
-        <v>312</v>
+      <c r="N49" s="73" t="s">
+        <v>310</v>
       </c>
       <c r="O49" s="50"/>
       <c r="P49" s="50"/>
@@ -9872,10 +9876,10 @@
         <v>0</v>
       </c>
       <c r="M50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="N50" s="77" t="s">
+      <c r="N50" s="73" t="s">
         <v>276</v>
       </c>
       <c r="O50" s="50"/>
@@ -10201,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="54">
-        <f t="shared" ref="M57:M58" si="2">(D57-SUM(G57:L57))</f>
+        <f t="shared" ref="M57:M58" si="3">(D57-SUM(G57:L57))</f>
         <v>20</v>
       </c>
       <c r="N57" s="50"/>
@@ -10246,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="N58" s="50"/>
@@ -10267,7 +10271,7 @@
         <v>22</v>
       </c>
       <c r="E59" s="65" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F59" s="48">
         <v>20</v>
@@ -10314,7 +10318,7 @@
         <v>20</v>
       </c>
       <c r="E60" s="65" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F60" s="48">
         <v>20</v>
@@ -10432,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="54">
-        <f t="shared" ref="M62:M63" si="3">(D62-SUM(G62:L62))</f>
+        <f t="shared" ref="M62:M63" si="4">(D62-SUM(G62:L62))</f>
         <v>21</v>
       </c>
       <c r="N62" s="50" t="s">
@@ -10479,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="N63" s="50"/>
@@ -10525,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="54">
-        <f>(F64-SUM(G64:L64))</f>
+        <f t="shared" ref="M64:M71" si="5">(F64-SUM(G64:L64))</f>
         <v>17</v>
       </c>
       <c r="N64" s="50"/>
@@ -10570,7 +10574,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="54">
-        <f>(F65-SUM(G65:L65))</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="N65" s="50"/>
@@ -10615,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="54">
-        <f>(F66-SUM(G66:L66))</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="N66" s="50" t="s">
@@ -10662,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="54">
-        <f>(F67-SUM(G67:L67))</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="N67" s="50"/>
@@ -10708,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="54">
-        <f>(F68-SUM(G68:L68))</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="N68" s="50"/>
@@ -10753,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="54">
-        <f>(F69-SUM(G69:L69))</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="N69" s="50"/>
@@ -10798,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="54">
-        <f>(F70-SUM(G70:L70))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="N70" s="54"/>
@@ -10843,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="54">
-        <f>(F71-SUM(G71:L71))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="N71" s="54"/>
@@ -11398,18 +11402,19 @@
       <c r="M159" s="48"/>
     </row>
   </sheetData>
+  <autoFilter ref="A35:A36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11427,46 +11432,46 @@
   <sheetData>
     <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="F1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="65" t="s">
         <v>305</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>307</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="N1" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="O1" s="2"/>
     </row>
@@ -11493,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="67">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I2" s="67">
         <v>0</v>
@@ -11509,7 +11514,7 @@
       </c>
       <c r="M2" s="67">
         <f>(F2-SUM(G2:L2))</f>
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="N2"/>
       <c r="O2"/>
@@ -11531,13 +11536,13 @@
         <v>6</v>
       </c>
       <c r="F3" s="67">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" s="67">
         <v>0</v>
       </c>
       <c r="H3" s="67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="67">
         <v>0</v>
@@ -11552,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="67">
-        <f t="shared" ref="M3:M33" si="0">(F3-SUM(G3:L3))</f>
+        <f t="shared" ref="M3:M35" si="0">(F3-SUM(G3:L3))</f>
         <v>60</v>
       </c>
       <c r="N3"/>
@@ -12118,8 +12123,8 @@
       <c r="D17" s="67">
         <v>106</v>
       </c>
-      <c r="E17" s="67" t="s">
-        <v>289</v>
+      <c r="E17" s="67">
+        <v>60</v>
       </c>
       <c r="F17" s="67">
         <v>96</v>
@@ -12162,8 +12167,8 @@
       <c r="D18" s="67">
         <v>51</v>
       </c>
-      <c r="E18" s="67" t="s">
-        <v>289</v>
+      <c r="E18" s="67">
+        <v>60</v>
       </c>
       <c r="F18" s="67">
         <v>48</v>
@@ -12207,7 +12212,7 @@
         <v>63</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F19" s="67">
         <v>62</v>
@@ -12235,7 +12240,7 @@
         <v>56</v>
       </c>
       <c r="N19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O19"/>
     </row>
@@ -12253,7 +12258,7 @@
         <v>64</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F20" s="67">
         <v>62</v>
@@ -12281,7 +12286,7 @@
         <v>56</v>
       </c>
       <c r="N20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O20"/>
     </row>
@@ -12298,7 +12303,7 @@
     </row>
     <row r="22" spans="1:15" s="67" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B22" s="67" t="s">
         <v>43</v>
@@ -12338,12 +12343,12 @@
         <v>72</v>
       </c>
       <c r="N22" s="67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="67" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B23" s="67" t="s">
         <v>45</v>
@@ -12385,7 +12390,7 @@
     </row>
     <row r="24" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A24" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B24" s="67" t="s">
         <v>43</v>
@@ -12429,7 +12434,7 @@
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A25" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B25" s="67" t="s">
         <v>45</v>
@@ -12473,7 +12478,7 @@
     </row>
     <row r="26" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>43</v>
@@ -12513,13 +12518,13 @@
         <v>71</v>
       </c>
       <c r="N26" s="71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O26"/>
     </row>
     <row r="27" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B27" s="67" t="s">
         <v>45</v>
@@ -12563,7 +12568,7 @@
     </row>
     <row r="28" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A28" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" s="67" t="s">
         <v>43</v>
@@ -12574,8 +12579,8 @@
       <c r="D28" s="67">
         <v>88</v>
       </c>
-      <c r="E28" s="67" t="s">
-        <v>295</v>
+      <c r="E28" s="67">
+        <v>60</v>
       </c>
       <c r="F28" s="67">
         <v>75</v>
@@ -12607,7 +12612,7 @@
     </row>
     <row r="29" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A29" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>45</v>
@@ -12618,8 +12623,8 @@
       <c r="D29" s="67">
         <v>89</v>
       </c>
-      <c r="E29" s="67" t="s">
-        <v>295</v>
+      <c r="E29" s="67">
+        <v>60</v>
       </c>
       <c r="F29" s="67">
         <v>70</v>
@@ -12649,189 +12654,272 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="67">
+    <row r="30" spans="1:15" ht="60" x14ac:dyDescent="0.2">
+      <c r="A30" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="75">
+        <v>88</v>
+      </c>
+      <c r="E30" s="75" t="s">
+        <v>312</v>
+      </c>
+      <c r="F30" s="75">
+        <v>75</v>
+      </c>
+      <c r="G30" s="75">
+        <v>4</v>
+      </c>
+      <c r="H30" s="75">
+        <v>1</v>
+      </c>
+      <c r="I30" s="75">
+        <v>0</v>
+      </c>
+      <c r="J30" s="75">
+        <v>0</v>
+      </c>
+      <c r="K30" s="75">
+        <v>1</v>
+      </c>
+      <c r="L30" s="75">
+        <v>0</v>
+      </c>
+      <c r="M30" s="75">
+        <f>(F30-SUM(G30:L30))</f>
+        <v>69</v>
+      </c>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:15" ht="60" x14ac:dyDescent="0.2">
+      <c r="A31" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="75">
+        <v>89</v>
+      </c>
+      <c r="E31" s="75" t="s">
+        <v>312</v>
+      </c>
+      <c r="F31" s="75">
+        <v>70</v>
+      </c>
+      <c r="G31" s="75">
+        <v>0</v>
+      </c>
+      <c r="H31" s="75">
+        <v>0</v>
+      </c>
+      <c r="I31" s="75">
+        <v>0</v>
+      </c>
+      <c r="J31" s="75">
+        <v>0</v>
+      </c>
+      <c r="K31" s="75">
+        <v>0</v>
+      </c>
+      <c r="L31" s="75">
+        <v>0</v>
+      </c>
+      <c r="M31" s="75">
+        <f>(F31-SUM(G31:L31))</f>
+        <v>70</v>
+      </c>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="67">
         <v>4789</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>43</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="67">
+      <c r="D32" s="67">
         <v>38</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E32" s="67">
         <v>6</v>
       </c>
-      <c r="F30" s="67">
+      <c r="F32" s="67">
         <v>37</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G32" s="67">
         <v>2</v>
       </c>
-      <c r="H30" s="67">
-        <v>0</v>
-      </c>
-      <c r="I30" s="67">
-        <v>0</v>
-      </c>
-      <c r="J30" s="67">
-        <v>0</v>
-      </c>
-      <c r="K30" s="67">
-        <v>0</v>
-      </c>
-      <c r="L30" s="67">
-        <v>0</v>
-      </c>
-      <c r="M30" s="67">
+      <c r="H32" s="67">
+        <v>0</v>
+      </c>
+      <c r="I32" s="67">
+        <v>0</v>
+      </c>
+      <c r="J32" s="67">
+        <v>0</v>
+      </c>
+      <c r="K32" s="67">
+        <v>0</v>
+      </c>
+      <c r="L32" s="67">
+        <v>0</v>
+      </c>
+      <c r="M32" s="67">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="N30" t="s">
-        <v>296</v>
-      </c>
-      <c r="O30"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="67">
+      <c r="N32" t="s">
+        <v>294</v>
+      </c>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="67">
         <v>4789</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>45</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D33" s="67">
         <v>19</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E33" s="67">
         <v>6</v>
       </c>
-      <c r="F31" s="67">
+      <c r="F33" s="67">
         <v>16</v>
       </c>
-      <c r="G31" s="67">
-        <v>0</v>
-      </c>
-      <c r="H31" s="67">
-        <v>0</v>
-      </c>
-      <c r="I31" s="67">
-        <v>0</v>
-      </c>
-      <c r="J31" s="67">
-        <v>0</v>
-      </c>
-      <c r="K31" s="67">
-        <v>0</v>
-      </c>
-      <c r="L31" s="67">
-        <v>0</v>
-      </c>
-      <c r="M31" s="67">
+      <c r="G33" s="67">
+        <v>0</v>
+      </c>
+      <c r="H33" s="67">
+        <v>0</v>
+      </c>
+      <c r="I33" s="67">
+        <v>0</v>
+      </c>
+      <c r="J33" s="67">
+        <v>0</v>
+      </c>
+      <c r="K33" s="67">
+        <v>0</v>
+      </c>
+      <c r="L33" s="67">
+        <v>0</v>
+      </c>
+      <c r="M33" s="67">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="N31" s="67" t="s">
-        <v>297</v>
-      </c>
-      <c r="O31"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="67">
+      <c r="N33" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="67">
         <v>2006</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="67">
+      <c r="D34" s="67">
         <v>27</v>
       </c>
-      <c r="E32" s="67">
+      <c r="E34" s="67">
         <v>24</v>
       </c>
-      <c r="F32" s="67">
+      <c r="F34" s="67">
         <v>26</v>
       </c>
-      <c r="G32" s="67">
+      <c r="G34" s="67">
         <v>3</v>
       </c>
-      <c r="H32" s="67">
+      <c r="H34" s="67">
         <v>1</v>
       </c>
-      <c r="I32" s="67">
-        <v>0</v>
-      </c>
-      <c r="J32" s="67">
-        <v>0</v>
-      </c>
-      <c r="K32" s="67">
-        <v>0</v>
-      </c>
-      <c r="L32" s="67">
-        <v>0</v>
-      </c>
-      <c r="M32" s="67">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="N32" t="s">
-        <v>298</v>
-      </c>
-      <c r="O32"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="67">
+      <c r="I34" s="67">
+        <v>0</v>
+      </c>
+      <c r="J34" s="67">
+        <v>0</v>
+      </c>
+      <c r="K34" s="67">
+        <v>0</v>
+      </c>
+      <c r="L34" s="67">
+        <v>1</v>
+      </c>
+      <c r="M34" s="67">
+        <v>20</v>
+      </c>
+      <c r="N34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="67">
         <v>2006</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>45</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="67">
+      <c r="D35" s="67">
         <v>30</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E35" s="67">
         <v>24</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F35" s="67">
         <v>29</v>
       </c>
-      <c r="G33" s="67">
-        <v>0</v>
-      </c>
-      <c r="H33" s="67">
-        <v>0</v>
-      </c>
-      <c r="I33" s="67">
-        <v>0</v>
-      </c>
-      <c r="J33" s="67">
-        <v>0</v>
-      </c>
-      <c r="K33" s="67">
-        <v>0</v>
-      </c>
-      <c r="L33" s="67">
-        <v>0</v>
-      </c>
-      <c r="M33" s="67">
+      <c r="G35" s="67">
+        <v>0</v>
+      </c>
+      <c r="H35" s="67">
+        <v>0</v>
+      </c>
+      <c r="I35" s="67">
+        <v>0</v>
+      </c>
+      <c r="J35" s="67">
+        <v>0</v>
+      </c>
+      <c r="K35" s="67">
+        <v>0</v>
+      </c>
+      <c r="L35" s="67">
+        <v>0</v>
+      </c>
+      <c r="M35" s="67">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="N33" t="s">
-        <v>299</v>
-      </c>
-      <c r="O33"/>
+      <c r="N35" t="s">
+        <v>297</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
